--- a/biology/Médecine/Félix_Garrigou/Félix_Garrigou.xlsx
+++ b/biology/Médecine/Félix_Garrigou/Félix_Garrigou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Garrigou</t>
+          <t>Félix_Garrigou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Louis Félix Garrigou, né le 17 septembre 1835[1] à Tarascon-sur-Ariège où il est mort le 18 mars 1920[2], est un médecin, spéléologue et hydrologue français. Il est le fils de l'historien Adolphe Garrigou (1802-1893).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Louis Félix Garrigou, né le 17 septembre 1835 à Tarascon-sur-Ariège où il est mort le 18 mars 1920, est un médecin, spéléologue et hydrologue français. Il est le fils de l'historien Adolphe Garrigou (1802-1893).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Garrigou</t>
+          <t>Félix_Garrigou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine à Toulouse puis à Paris où et obtient son diplôme de docteur en médecine en 1860. Il devient médecin à Ax-les-Thermes et à Luchon, dans les Pyrénées.
 Dès 1861, il s'intéresse aux origines de l'homme et procède à de nombreuses explorations de grottes, d'abord en Ariège, puis dans tout le Sud-Ouest de la France.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Garrigou</t>
+          <t>Félix_Garrigou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Steve Hagimont, « Félix Garrigou (1835-1920), “Le père de l’hydrologie
 française” et les vicissitudes du thermalisme », Revue de Comminges et des Pyrénées centrales, no 132,‎ 2016 (lire en ligne [PDF])
